--- a/CallLogReport.xlsx
+++ b/CallLogReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdl1000team-my.sharepoint.com/personal/nat_cdl1000team_onmicrosoft_com/Documents/Desktop/ExcelMacro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/banknatapong/Desktop/VBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7070A7C-6AFA-4C87-81C6-4497D6104F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DA1D3-5801-0D4C-A494-D97EE4DD4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Call Log Report" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,18 +433,18 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
